--- a/reporting/Acts_02_22.xlsx
+++ b/reporting/Acts_02_22.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8DC6A6F-413D-4048-A288-B6A755A13C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692518A6-AD3F-4D95-9E56-671B6CA87377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="1360" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9700" yWindow="4360" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,8 +235,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +265,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -479,13 +492,52 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1063,22 +1115,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Acts" displayName="Acts" ref="A5:K40" totalsRowCount="1" headerRowDxfId="16" dataDxfId="14" totalsRowDxfId="12" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Acts" displayName="Acts" ref="A5:K40" totalsRowCount="1" headerRowDxfId="17" dataDxfId="15" totalsRowDxfId="13" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="12">
   <autoFilter ref="A5:K39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="1" totalsRowLabel="Итог" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="3" totalsRowDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="4" totalsRowDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="5" totalsRowDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="6" totalsRowDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="7" totalsRowFunction="sum" totalsRowDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="8" totalsRowFunction="sum" totalsRowDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="9" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="10" totalsRowFunction="sum" totalsRowDxfId="1">
-      <calculatedColumnFormula>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="1" totalsRowLabel="Итог" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="3" totalsRowDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="4" totalsRowDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="5" totalsRowDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="6" totalsRowDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="7" totalsRowFunction="sum" totalsRowDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="8" totalsRowFunction="sum" totalsRowDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="9" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="10" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="2">
+      <calculatedColumnFormula>Acts[[#This Row],[7]]/6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="11" totalsRowDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="11" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1353,7 +1405,7 @@
   <dimension ref="A2:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K16"/>
+      <selection activeCell="A15" sqref="A15:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10" x14ac:dyDescent="0.35"/>
@@ -1482,7 +1534,7 @@
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>449190</v>
       </c>
       <c r="K6" s="8" t="s">
@@ -1518,7 +1570,7 @@
         <v>31</v>
       </c>
       <c r="J7" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>405720</v>
       </c>
       <c r="K7" s="8" t="s">
@@ -1554,7 +1606,7 @@
         <v>31</v>
       </c>
       <c r="J8" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>1666666.6666666667</v>
       </c>
       <c r="K8" s="8" t="s">
@@ -1562,38 +1614,38 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="20" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="23">
         <v>5</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="25">
         <v>13951312.34</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="25">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+      <c r="J9" s="25">
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>2325218.7233333332</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="26" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1626,7 +1678,7 @@
         <v>31</v>
       </c>
       <c r="J10" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>1807093.1066666667</v>
       </c>
       <c r="K10" s="8" t="s">
@@ -1634,38 +1686,38 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="20" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="23">
         <v>9</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="25">
         <v>142097760</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+      <c r="J11" s="25">
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>23682960</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="26" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1698,7 +1750,7 @@
         <v>31</v>
       </c>
       <c r="J12" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>1666666.6666666667</v>
       </c>
       <c r="K12" s="8" t="s">
@@ -1706,106 +1758,106 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="20" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="30">
         <v>2</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="7">
-        <v>13879571.369999999</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="G13" s="27">
+        <v>6559104</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0</v>
+      </c>
+      <c r="I13" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
-        <v>2313261.895</v>
-      </c>
-      <c r="K13" s="8" t="s">
+      <c r="J13" s="27">
+        <f>Acts[[#This Row],[7]]/6</f>
+        <v>1093184</v>
+      </c>
+      <c r="K13" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="20" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="23">
         <v>1</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="25">
         <v>3036475.86</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+      <c r="H14" s="25">
+        <v>0</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="25">
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>506079.31</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="20" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="23">
         <v>3</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="25">
         <v>21712272</v>
       </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+      <c r="H15" s="25">
+        <v>0</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="25">
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>3618712</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="26" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1836,7 +1888,7 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>789712</v>
       </c>
       <c r="K16" s="8" t="s">
@@ -1854,7 +1906,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="4"/>
       <c r="J17" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K17" s="8"/>
@@ -1870,7 +1922,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="4"/>
       <c r="J18" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K18" s="8"/>
@@ -1886,7 +1938,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="4"/>
       <c r="J19" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K19" s="8"/>
@@ -1902,7 +1954,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="4"/>
       <c r="J20" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K20" s="8"/>
@@ -1918,7 +1970,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="4"/>
       <c r="J21" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K21" s="8"/>
@@ -1934,7 +1986,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="4"/>
       <c r="J22" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K22" s="8"/>
@@ -1950,7 +2002,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="4"/>
       <c r="J23" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K23" s="8"/>
@@ -1966,7 +2018,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="4"/>
       <c r="J24" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K24" s="8"/>
@@ -1982,7 +2034,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="4"/>
       <c r="J25" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K25" s="8"/>
@@ -1998,7 +2050,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="4"/>
       <c r="J26" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K26" s="8"/>
@@ -2014,7 +2066,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="4"/>
       <c r="J27" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K27" s="8"/>
@@ -2030,7 +2082,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="4"/>
       <c r="J28" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K28" s="8"/>
@@ -2046,7 +2098,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="4"/>
       <c r="J29" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K29" s="8"/>
@@ -2062,7 +2114,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="4"/>
       <c r="J30" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K30" s="8"/>
@@ -2078,7 +2130,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="4"/>
       <c r="J31" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K31" s="8"/>
@@ -2094,7 +2146,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="4"/>
       <c r="J32" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K32" s="8"/>
@@ -2110,7 +2162,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="4"/>
       <c r="J33" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K33" s="8"/>
@@ -2126,7 +2178,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="4"/>
       <c r="J34" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K34" s="8"/>
@@ -2142,7 +2194,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="4"/>
       <c r="J35" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K35" s="8"/>
@@ -2158,7 +2210,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="4"/>
       <c r="J36" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K36" s="8"/>
@@ -2174,7 +2226,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="4"/>
       <c r="J37" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K37" s="8"/>
@@ -2190,12 +2242,12 @@
       <c r="H38" s="7"/>
       <c r="I38" s="4"/>
       <c r="J38" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:11" ht="10.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2206,12 +2258,12 @@
       <c r="H39" s="7"/>
       <c r="I39" s="4"/>
       <c r="J39" s="7">
-        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <f>Acts[[#This Row],[7]]/6</f>
         <v>0</v>
       </c>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="1:11" ht="10.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
         <v>23</v>
       </c>
@@ -2222,7 +2274,7 @@
       <c r="F40" s="15"/>
       <c r="G40" s="17">
         <f>SUBTOTAL(109,Acts[7])</f>
-        <v>235387682.21000004</v>
+        <v>228067214.84000003</v>
       </c>
       <c r="H40" s="17">
         <f>SUBTOTAL(109,Acts[8])</f>
@@ -2231,7 +2283,7 @@
       <c r="I40" s="15"/>
       <c r="J40" s="17">
         <f>SUBTOTAL(109,Acts[10])</f>
-        <v>39231280.36833334</v>
+        <v>38011202.473333336</v>
       </c>
       <c r="K40" s="18"/>
     </row>
@@ -2242,7 +2294,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="10" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="10" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
